--- a/storage/private/order_list.fa.xlsx
+++ b/storage/private/order_list.fa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t xml:space="preserve">تعداد ثبت عدم غذا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شماره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غذا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعداد</t>
   </si>
   <si>
     <t xml:space="preserve">لیست غذاها</t>
@@ -57,7 +66,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -79,8 +88,14 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,7 +111,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF972F"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -115,6 +130,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3838"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF972F"/>
       </patternFill>
     </fill>
     <fill>
@@ -165,7 +192,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -178,19 +205,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -198,19 +229,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,7 +293,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF972F"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -269,7 +316,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFD428"/>
-      <rgbColor rgb="FFFF972F"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF3838"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -291,134 +338,168 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="19.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="21.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="19.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="7" style="3" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="G3" s="5" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="12"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="J14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -430,12 +511,14 @@
     <mergeCell ref="I8:K9"/>
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="I10:K11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:K13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="G16:H17"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/storage/private/order_list.fa.xlsx
+++ b/storage/private/order_list.fa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -40,10 +40,10 @@
     <t xml:space="preserve">تاریخ</t>
   </si>
   <si>
-    <t xml:space="preserve">تعداد ثبت غذا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تعداد ثبت عدم غذا</t>
+    <t xml:space="preserve">تعداد کسانی که غذا ثبت کردن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعداد کسانی که غذا ثبت نکردن</t>
   </si>
   <si>
     <t xml:space="preserve">شماره</t>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">تعداد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
   </si>
   <si>
     <t xml:space="preserve">لیست غذاها</t>
@@ -340,19 +343,21 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.18367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="7" style="3" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="3" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,6 +491,9 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="14"/>
@@ -494,12 +502,12 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G16" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -514,11 +522,10 @@
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
-    <mergeCell ref="G16:H17"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/storage/private/order_list.fa.xlsx
+++ b/storage/private/order_list.fa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">تعداد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
   </si>
   <si>
     <t xml:space="preserve">لیست غذاها</t>
@@ -344,7 +341,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -353,11 +350,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="17.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="21.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="8.21"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="3" width="8.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="3" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,9 +488,6 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="14"/>
@@ -502,7 +496,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G16" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="16"/>
     </row>

--- a/storage/private/order_list.fa.xlsx
+++ b/storage/private/order_list.fa.xlsx
@@ -447,7 +447,9 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -459,7 +461,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -472,10 +474,6 @@
       <c r="B2" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
